--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.400249129426562</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N2">
-        <v>0.400249129426562</v>
+        <v>1.919812</v>
       </c>
       <c r="O2">
-        <v>0.08181201418882413</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P2">
-        <v>0.08181201418882413</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q2">
-        <v>2.163997638737163</v>
+        <v>9.719995143940888</v>
       </c>
       <c r="R2">
-        <v>2.163997638737163</v>
+        <v>87.479956295468</v>
       </c>
       <c r="S2">
-        <v>0.0005109215984407211</v>
+        <v>0.001347012676124116</v>
       </c>
       <c r="T2">
-        <v>0.0005109215984407211</v>
+        <v>0.001347012676124116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.06362722406337</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N3">
-        <v>2.06362722406337</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O3">
-        <v>0.4218110354853205</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P3">
-        <v>0.4218110354853205</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q3">
-        <v>11.15726209449813</v>
+        <v>36.3238879435789</v>
       </c>
       <c r="R3">
-        <v>11.15726209449813</v>
+        <v>326.91499149221</v>
       </c>
       <c r="S3">
-        <v>0.00263423863385991</v>
+        <v>0.005033823245952257</v>
       </c>
       <c r="T3">
-        <v>0.00263423863385991</v>
+        <v>0.005033823245952257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.412941522219357</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N4">
-        <v>0.412941522219357</v>
+        <v>1.265099</v>
       </c>
       <c r="O4">
-        <v>0.0844063739085866</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P4">
-        <v>0.0844063739085866</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q4">
-        <v>2.232620668780686</v>
+        <v>6.405187662440111</v>
       </c>
       <c r="R4">
-        <v>2.232620668780686</v>
+        <v>57.646688961961</v>
       </c>
       <c r="S4">
-        <v>0.0005271235515168543</v>
+        <v>0.0008876412844340709</v>
       </c>
       <c r="T4">
-        <v>0.0005271235515168543</v>
+        <v>0.0008876412844340708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.791115369800551</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N5">
-        <v>0.791115369800551</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O5">
-        <v>0.161706140252817</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P5">
-        <v>0.161706140252817</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q5">
-        <v>4.277265498790256</v>
+        <v>4.696726166540222</v>
       </c>
       <c r="R5">
-        <v>4.277265498790256</v>
+        <v>42.27053549886199</v>
       </c>
       <c r="S5">
-        <v>0.001009865854970416</v>
+        <v>0.0006508799221527653</v>
       </c>
       <c r="T5">
-        <v>0.001009865854970416</v>
+        <v>0.0006508799221527652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.22436935081516</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N6">
-        <v>1.22436935081516</v>
+        <v>2.542378</v>
       </c>
       <c r="O6">
-        <v>0.2502644361644519</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P6">
-        <v>0.2502644361644519</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q6">
-        <v>6.619708050089081</v>
+        <v>12.87204258232689</v>
       </c>
       <c r="R6">
-        <v>6.619708050089081</v>
+        <v>115.848383240942</v>
       </c>
       <c r="S6">
-        <v>0.001562918442062688</v>
+        <v>0.001783828517323091</v>
       </c>
       <c r="T6">
-        <v>0.001562918442062688</v>
+        <v>0.001783828517323091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.47101091744349</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H7">
-        <v>93.47101091744349</v>
+        <v>45.566939</v>
       </c>
       <c r="I7">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J7">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.400249129426562</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N7">
-        <v>0.400249129426562</v>
+        <v>5.083978</v>
       </c>
       <c r="O7">
-        <v>0.08181201418882413</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P7">
-        <v>0.08181201418882413</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q7">
-        <v>37.41169074632743</v>
+        <v>25.74014615592689</v>
       </c>
       <c r="R7">
-        <v>37.41169074632743</v>
+        <v>231.661315403342</v>
       </c>
       <c r="S7">
-        <v>0.008832930542215425</v>
+        <v>0.003567111160434526</v>
       </c>
       <c r="T7">
-        <v>0.008832930542215425</v>
+        <v>0.003567111160434526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.06362722406337</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N8">
-        <v>2.06362722406337</v>
+        <v>1.919812</v>
       </c>
       <c r="O8">
-        <v>0.4218110354853205</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P8">
-        <v>0.4218110354853205</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q8">
-        <v>192.8893227899609</v>
+        <v>61.11602686968445</v>
       </c>
       <c r="R8">
-        <v>192.8893227899609</v>
+        <v>550.04424182716</v>
       </c>
       <c r="S8">
-        <v>0.04554132562709556</v>
+        <v>0.008469558028444592</v>
       </c>
       <c r="T8">
-        <v>0.04554132562709556</v>
+        <v>0.008469558028444592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.412941522219357</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N9">
-        <v>0.412941522219357</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O9">
-        <v>0.0844063739085866</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P9">
-        <v>0.0844063739085866</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q9">
-        <v>38.59806153163125</v>
+        <v>228.3922654997445</v>
       </c>
       <c r="R9">
-        <v>38.59806153163125</v>
+        <v>2055.5303894977</v>
       </c>
       <c r="S9">
-        <v>0.009113033647283749</v>
+        <v>0.03165097021150644</v>
       </c>
       <c r="T9">
-        <v>0.009113033647283749</v>
+        <v>0.03165097021150644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.791115369800551</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N10">
-        <v>0.791115369800551</v>
+        <v>1.265099</v>
       </c>
       <c r="O10">
-        <v>0.161706140252817</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P10">
-        <v>0.161706140252817</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q10">
-        <v>73.94635336758465</v>
+        <v>40.27364370928556</v>
       </c>
       <c r="R10">
-        <v>73.94635336758465</v>
+        <v>362.46279338357</v>
       </c>
       <c r="S10">
-        <v>0.01745879403245392</v>
+        <v>0.005581186799659145</v>
       </c>
       <c r="T10">
-        <v>0.01745879403245392</v>
+        <v>0.005581186799659146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.22436935081516</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N11">
-        <v>1.22436935081516</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O11">
-        <v>0.2502644361644519</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P11">
-        <v>0.2502644361644519</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q11">
-        <v>114.443040957027</v>
+        <v>29.53141831277111</v>
       </c>
       <c r="R11">
-        <v>114.443040957027</v>
+        <v>265.78276481494</v>
       </c>
       <c r="S11">
-        <v>0.02702009483259101</v>
+        <v>0.004092511798838038</v>
       </c>
       <c r="T11">
-        <v>0.02702009483259101</v>
+        <v>0.004092511798838038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J12">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.400249129426562</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N12">
-        <v>0.400249129426562</v>
+        <v>2.542378</v>
       </c>
       <c r="O12">
-        <v>0.08181201418882413</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P12">
-        <v>0.08181201418882413</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q12">
-        <v>78.77119649968409</v>
+        <v>80.93503018050447</v>
       </c>
       <c r="R12">
-        <v>78.77119649968409</v>
+        <v>728.4152716245401</v>
       </c>
       <c r="S12">
-        <v>0.01859794341097013</v>
+        <v>0.01121610761951738</v>
       </c>
       <c r="T12">
-        <v>0.01859794341097013</v>
+        <v>0.01121610761951738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J13">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.06362722406337</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N13">
-        <v>2.06362722406337</v>
+        <v>5.083978</v>
       </c>
       <c r="O13">
-        <v>0.4218110354853205</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P13">
-        <v>0.4218110354853205</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q13">
-        <v>406.1330147093273</v>
+        <v>161.8452932125045</v>
       </c>
       <c r="R13">
-        <v>406.1330147093273</v>
+        <v>1456.60763891254</v>
       </c>
       <c r="S13">
-        <v>0.09588833432181089</v>
+        <v>0.0224287829674654</v>
       </c>
       <c r="T13">
-        <v>0.09588833432181089</v>
+        <v>0.0224287829674654</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H14">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I14">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J14">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.412941522219357</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N14">
-        <v>0.412941522219357</v>
+        <v>1.919812</v>
       </c>
       <c r="O14">
-        <v>0.0844063739085866</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P14">
-        <v>0.0844063739085866</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q14">
-        <v>81.26912814581868</v>
+        <v>257.3132415311565</v>
       </c>
       <c r="R14">
-        <v>81.26912814581868</v>
+        <v>2315.819173780408</v>
       </c>
       <c r="S14">
-        <v>0.01918770709952181</v>
+        <v>0.03565888592990863</v>
       </c>
       <c r="T14">
-        <v>0.01918770709952181</v>
+        <v>0.03565888592990862</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H15">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I15">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J15">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.791115369800551</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N15">
-        <v>0.791115369800551</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O15">
-        <v>0.161706140252817</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P15">
-        <v>0.161706140252817</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q15">
-        <v>155.6957896142368</v>
+        <v>961.5866277055845</v>
       </c>
       <c r="R15">
-        <v>155.6957896142368</v>
+        <v>8654.279649350259</v>
       </c>
       <c r="S15">
-        <v>0.03675990226431942</v>
+        <v>0.1332582329033662</v>
       </c>
       <c r="T15">
-        <v>0.03675990226431942</v>
+        <v>0.1332582329033661</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H16">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I16">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J16">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.22436935081516</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N16">
-        <v>1.22436935081516</v>
+        <v>1.265099</v>
       </c>
       <c r="O16">
-        <v>0.2502644361644519</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P16">
-        <v>0.2502644361644519</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q16">
-        <v>240.96251966726</v>
+        <v>169.5617719588295</v>
       </c>
       <c r="R16">
-        <v>240.96251966726</v>
+        <v>1526.055947629466</v>
       </c>
       <c r="S16">
-        <v>0.05689144641791052</v>
+        <v>0.02349814509495798</v>
       </c>
       <c r="T16">
-        <v>0.05689144641791052</v>
+        <v>0.02349814509495798</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H17">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I17">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J17">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.400249129426562</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N17">
-        <v>0.400249129426562</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O17">
-        <v>0.08181201418882413</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P17">
-        <v>0.08181201418882413</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q17">
-        <v>67.27224364405937</v>
+        <v>124.3344072296191</v>
       </c>
       <c r="R17">
-        <v>67.27224364405937</v>
+        <v>1119.009665066572</v>
       </c>
       <c r="S17">
-        <v>0.01588303131114974</v>
+        <v>0.01723046360996138</v>
       </c>
       <c r="T17">
-        <v>0.01588303131114974</v>
+        <v>0.01723046360996137</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H18">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I18">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J18">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.06362722406337</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N18">
-        <v>2.06362722406337</v>
+        <v>2.542378</v>
       </c>
       <c r="O18">
-        <v>0.4218110354853205</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P18">
-        <v>0.4218110354853205</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q18">
-        <v>346.8460596194167</v>
+        <v>340.7560346416724</v>
       </c>
       <c r="R18">
-        <v>346.8460596194167</v>
+        <v>3066.804311775052</v>
       </c>
       <c r="S18">
-        <v>0.08189063611780674</v>
+        <v>0.0472225233995356</v>
       </c>
       <c r="T18">
-        <v>0.08189063611780674</v>
+        <v>0.0472225233995356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H19">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I19">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J19">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.412941522219357</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N19">
-        <v>0.412941522219357</v>
+        <v>5.083978</v>
       </c>
       <c r="O19">
-        <v>0.0844063739085866</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P19">
-        <v>0.0844063739085866</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q19">
-        <v>69.40552933441506</v>
+        <v>681.4077936032724</v>
       </c>
       <c r="R19">
-        <v>69.40552933441506</v>
+        <v>6132.670142429452</v>
       </c>
       <c r="S19">
-        <v>0.01638670179365697</v>
+        <v>0.09443059610637135</v>
       </c>
       <c r="T19">
-        <v>0.01638670179365697</v>
+        <v>0.09443059610637135</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H20">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.791115369800551</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N20">
-        <v>0.791115369800551</v>
+        <v>1.919812</v>
       </c>
       <c r="O20">
-        <v>0.161706140252817</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P20">
-        <v>0.161706140252817</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q20">
-        <v>132.9674495083384</v>
+        <v>123.0038303221782</v>
       </c>
       <c r="R20">
-        <v>132.9674495083384</v>
+        <v>1107.034472899604</v>
       </c>
       <c r="S20">
-        <v>0.03139372272283593</v>
+        <v>0.01704607010622613</v>
       </c>
       <c r="T20">
-        <v>0.03139372272283593</v>
+        <v>0.01704607010622613</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H21">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.22436935081516</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N21">
-        <v>1.22436935081516</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O21">
-        <v>0.2502644361644519</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P21">
-        <v>0.2502644361644519</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q21">
-        <v>205.7870141937906</v>
+        <v>459.6686812172923</v>
       </c>
       <c r="R21">
-        <v>205.7870141937906</v>
+        <v>4137.018130955631</v>
       </c>
       <c r="S21">
-        <v>0.04858648103312705</v>
+        <v>0.06370163063331601</v>
       </c>
       <c r="T21">
-        <v>0.04858648103312705</v>
+        <v>0.06370163063331602</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H22">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I22">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J22">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.400249129426562</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N22">
-        <v>0.400249129426562</v>
+        <v>1.265099</v>
       </c>
       <c r="O22">
-        <v>0.08181201418882413</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P22">
-        <v>0.08181201418882413</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q22">
-        <v>146.4801083827977</v>
+        <v>81.05586522886477</v>
       </c>
       <c r="R22">
-        <v>146.4801083827977</v>
+        <v>729.502787059783</v>
       </c>
       <c r="S22">
-        <v>0.03458407244768674</v>
+        <v>0.01123285313630531</v>
       </c>
       <c r="T22">
-        <v>0.03458407244768674</v>
+        <v>0.01123285313630531</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H23">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I23">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J23">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.06362722406337</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N23">
-        <v>2.06362722406337</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O23">
-        <v>0.4218110354853205</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P23">
-        <v>0.4218110354853205</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q23">
-        <v>755.2304732694164</v>
+        <v>59.43576101670955</v>
       </c>
       <c r="R23">
-        <v>755.2304732694164</v>
+        <v>534.9218491503859</v>
       </c>
       <c r="S23">
-        <v>0.1783105275563654</v>
+        <v>0.008236704064044561</v>
       </c>
       <c r="T23">
-        <v>0.1783105275563654</v>
+        <v>0.008236704064044561</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H24">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I24">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J24">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.412941522219357</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N24">
-        <v>0.412941522219357</v>
+        <v>2.542378</v>
       </c>
       <c r="O24">
-        <v>0.0844063739085866</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P24">
-        <v>0.0844063739085866</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q24">
-        <v>151.1251730068964</v>
+        <v>162.8921124187362</v>
       </c>
       <c r="R24">
-        <v>151.1251730068964</v>
+        <v>1466.029011768626</v>
       </c>
       <c r="S24">
-        <v>0.03568077597458612</v>
+        <v>0.02257385286920124</v>
       </c>
       <c r="T24">
-        <v>0.03568077597458612</v>
+        <v>0.02257385286920125</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H25">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I25">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J25">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.791115369800551</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N25">
-        <v>0.791115369800551</v>
+        <v>5.083978</v>
       </c>
       <c r="O25">
-        <v>0.161706140252817</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P25">
-        <v>0.161706140252817</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q25">
-        <v>289.52633895221</v>
+        <v>325.7343777795363</v>
       </c>
       <c r="R25">
-        <v>289.52633895221</v>
+        <v>2931.609400015826</v>
       </c>
       <c r="S25">
-        <v>0.06835740355727811</v>
+        <v>0.04514079785234767</v>
       </c>
       <c r="T25">
-        <v>0.06835740355727811</v>
+        <v>0.04514079785234768</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H26">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.22436935081516</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N26">
-        <v>1.22436935081516</v>
+        <v>1.919812</v>
       </c>
       <c r="O26">
-        <v>0.2502644361644519</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P26">
-        <v>0.2502644361644519</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q26">
-        <v>448.0853099291669</v>
+        <v>257.5389926508613</v>
       </c>
       <c r="R26">
-        <v>448.0853099291669</v>
+        <v>2317.850933857752</v>
       </c>
       <c r="S26">
-        <v>0.10579330526461</v>
+        <v>0.0356901708858565</v>
       </c>
       <c r="T26">
-        <v>0.10579330526461</v>
+        <v>0.03569017088585649</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H27">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I27">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J27">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.400249129426562</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N27">
-        <v>0.400249129426562</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O27">
-        <v>0.08181201418882413</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P27">
-        <v>0.08181201418882413</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q27">
-        <v>14.4138211882224</v>
+        <v>962.4302658199935</v>
       </c>
       <c r="R27">
-        <v>14.4138211882224</v>
+        <v>8661.872392379941</v>
       </c>
       <c r="S27">
-        <v>0.003403114878361375</v>
+        <v>0.1333751456401877</v>
       </c>
       <c r="T27">
-        <v>0.003403114878361375</v>
+        <v>0.1333751456401877</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H28">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I28">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J28">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.06362722406337</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N28">
-        <v>2.06362722406337</v>
+        <v>1.265099</v>
       </c>
       <c r="O28">
-        <v>0.4218110354853205</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P28">
-        <v>0.4218110354853205</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q28">
-        <v>74.31559901057764</v>
+        <v>169.7105352313727</v>
       </c>
       <c r="R28">
-        <v>74.31559901057764</v>
+        <v>1527.394817082354</v>
       </c>
       <c r="S28">
-        <v>0.01754597322838194</v>
+        <v>0.0235187609503046</v>
       </c>
       <c r="T28">
-        <v>0.01754597322838194</v>
+        <v>0.0235187609503046</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H29">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I29">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J29">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.412941522219357</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N29">
-        <v>0.412941522219357</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O29">
-        <v>0.0844063739085866</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P29">
-        <v>0.0844063739085866</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q29">
-        <v>14.87090120842915</v>
+        <v>124.4434907399853</v>
       </c>
       <c r="R29">
-        <v>14.87090120842915</v>
+        <v>1119.991416659868</v>
       </c>
       <c r="S29">
-        <v>0.00351103184202111</v>
+        <v>0.01724558057957334</v>
       </c>
       <c r="T29">
-        <v>0.00351103184202111</v>
+        <v>0.01724558057957334</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H30">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I30">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J30">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.791115369800551</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N30">
-        <v>0.791115369800551</v>
+        <v>2.542378</v>
       </c>
       <c r="O30">
-        <v>0.161706140252817</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P30">
-        <v>0.161706140252817</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q30">
-        <v>28.48974461455214</v>
+        <v>341.0549934356654</v>
       </c>
       <c r="R30">
-        <v>28.48974461455214</v>
+        <v>3069.494940920988</v>
       </c>
       <c r="S30">
-        <v>0.006726451820959159</v>
+        <v>0.04726395359360296</v>
       </c>
       <c r="T30">
-        <v>0.006726451820959159</v>
+        <v>0.04726395359360296</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H31">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I31">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J31">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.22436935081516</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N31">
-        <v>1.22436935081516</v>
+        <v>5.083978</v>
       </c>
       <c r="O31">
-        <v>0.2502644361644519</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P31">
-        <v>0.2502644361644519</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q31">
-        <v>44.09214060321322</v>
+        <v>682.0056197060653</v>
       </c>
       <c r="R31">
-        <v>44.09214060321322</v>
+        <v>6138.050577354587</v>
       </c>
       <c r="S31">
-        <v>0.0104101901741506</v>
+        <v>0.09451344381633979</v>
       </c>
       <c r="T31">
-        <v>0.0104101901741506</v>
+        <v>0.09451344381633979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H32">
+        <v>111.434855</v>
+      </c>
+      <c r="I32">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J32">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.6399373333333334</v>
+      </c>
+      <c r="N32">
+        <v>1.919812</v>
+      </c>
+      <c r="O32">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="P32">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="Q32">
+        <v>23.77044131636222</v>
+      </c>
+      <c r="R32">
+        <v>213.93397184726</v>
+      </c>
+      <c r="S32">
+        <v>0.003294146272301784</v>
+      </c>
+      <c r="T32">
+        <v>0.003294146272301784</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H33">
+        <v>111.434855</v>
+      </c>
+      <c r="I33">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J33">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.391463333333334</v>
+      </c>
+      <c r="N33">
+        <v>7.174390000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.3793301174331417</v>
+      </c>
+      <c r="P33">
+        <v>0.3793301174331418</v>
+      </c>
+      <c r="Q33">
+        <v>88.83078992927223</v>
+      </c>
+      <c r="R33">
+        <v>799.47710936345</v>
+      </c>
+      <c r="S33">
+        <v>0.01231031479881322</v>
+      </c>
+      <c r="T33">
+        <v>0.01231031479881321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H34">
+        <v>111.434855</v>
+      </c>
+      <c r="I34">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J34">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.4216996666666666</v>
+      </c>
+      <c r="N34">
+        <v>1.265099</v>
+      </c>
+      <c r="O34">
+        <v>0.06688933166924994</v>
+      </c>
+      <c r="P34">
+        <v>0.06688933166924996</v>
+      </c>
+      <c r="Q34">
+        <v>15.66401373618278</v>
+      </c>
+      <c r="R34">
+        <v>140.976123625645</v>
+      </c>
+      <c r="S34">
+        <v>0.002170744403588849</v>
+      </c>
+      <c r="T34">
+        <v>0.002170744403588849</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H35">
+        <v>111.434855</v>
+      </c>
+      <c r="I35">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J35">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.3092193333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.9276579999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="P35">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="Q35">
+        <v>11.48593719106555</v>
+      </c>
+      <c r="R35">
+        <v>103.37343471959</v>
+      </c>
+      <c r="S35">
+        <v>0.001591739786328519</v>
+      </c>
+      <c r="T35">
+        <v>0.001591739786328519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H36">
+        <v>111.434855</v>
+      </c>
+      <c r="I36">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J36">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8474593333333335</v>
+      </c>
+      <c r="N36">
+        <v>2.542378</v>
+      </c>
+      <c r="O36">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="P36">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="Q36">
+        <v>31.47883597613222</v>
+      </c>
+      <c r="R36">
+        <v>283.30952378519</v>
+      </c>
+      <c r="S36">
+        <v>0.004362388093981111</v>
+      </c>
+      <c r="T36">
+        <v>0.004362388093981111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H37">
+        <v>111.434855</v>
+      </c>
+      <c r="I37">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J37">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.694659333333333</v>
+      </c>
+      <c r="N37">
+        <v>5.083978</v>
+      </c>
+      <c r="O37">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="P37">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="Q37">
+        <v>62.94803902813221</v>
+      </c>
+      <c r="R37">
+        <v>566.53235125319</v>
+      </c>
+      <c r="S37">
+        <v>0.00872344124172798</v>
+      </c>
+      <c r="T37">
+        <v>0.00872344124172798</v>
       </c>
     </row>
   </sheetData>
